--- a/Lab4 CPU/硬布线控制器状态转换逻辑自动生成(2019-4-22).xlsx
+++ b/Lab4 CPU/硬布线控制器状态转换逻辑自动生成(2019-4-22).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\百度同步盘\0常用文件\J教学资料\实验mooc\计算机硬件系统设计\6.CPU设计实验\4.CPU设计实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenlongding/大学课程/组原/Lab-of-Computer-Organiziation/Lab4 CPU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E01E95-EFB5-49D2-89B0-324A794A3572}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE851DC-858C-194F-949A-8D7A6D9CE58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="状态转换表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表达式自动生成!$A$1:$Q$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">状态转换表!$O$2:$R$22</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,23 +1284,23 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="3.625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="7.625" style="9" customWidth="1"/>
-    <col min="7" max="12" width="6.625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="9" customWidth="1"/>
-    <col min="15" max="17" width="3.625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="3.625" style="9" customWidth="1"/>
+    <col min="1" max="4" width="3.6640625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7" max="12" width="6.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" style="9" customWidth="1"/>
+    <col min="15" max="17" width="3.6640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="27" customHeight="1">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1326,7 @@
       <c r="Q1" s="65"/>
       <c r="R1" s="66"/>
     </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="30">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1372,7 +1380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="17">
       <c r="A3" s="14">
         <f t="shared" ref="A3:A17" si="0">IF(ISNUMBER($E3),IF(MOD($E3,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
@@ -1420,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="17">
       <c r="A4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1470,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="17">
       <c r="A5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1520,244 +1528,272 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B6" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C6" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D6" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E6" s="21"/>
+    <row r="6" spans="1:18" ht="17">
+      <c r="A6" s="19">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
       <c r="M6" s="26"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="19" t="str">
+      <c r="N6" s="55">
+        <v>3</v>
+      </c>
+      <c r="O6" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P6" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q6" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R6" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="R6" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17">
+      <c r="A7" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D7" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E7" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
       <c r="F7" s="27"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="28">
+        <v>1</v>
+      </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="14" t="str">
+      <c r="N7" s="57">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P7" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="P7" s="14">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R7" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17">
+      <c r="A8" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B8" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="B8" s="19">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C8" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D8" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E8" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="23">
+        <v>1</v>
+      </c>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="26"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="19" t="str">
+      <c r="N8" s="55">
+        <v>10</v>
+      </c>
+      <c r="O8" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P8" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q8" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R8" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="R8" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17">
+      <c r="A9" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B9" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C9" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D9" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E9" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="28">
+        <v>1</v>
+      </c>
       <c r="L9" s="28"/>
       <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="14" t="str">
+      <c r="N9" s="57">
+        <v>13</v>
+      </c>
+      <c r="O9" s="14">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P9" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="P9" s="14">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q9" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="14">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R9" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R9" s="15">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17">
+      <c r="A10" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B10" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C10" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D10" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E10" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>1</v>
+      </c>
       <c r="M10" s="26"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="19" t="str">
+      <c r="N10" s="55">
+        <v>11</v>
+      </c>
+      <c r="O10" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P10" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="P10" s="19">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q10" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R10" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="R10" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17">
+      <c r="A11" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B11" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C11" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D11" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E11" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2</v>
+      </c>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -1766,42 +1802,46 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
       <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="14" t="str">
+      <c r="N11" s="57">
+        <v>3</v>
+      </c>
+      <c r="O11" s="14">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P11" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q11" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R11" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="R11" s="15">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="17">
+      <c r="A12" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B12" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="B12" s="19">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C12" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D12" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E12" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3</v>
+      </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
@@ -1810,42 +1850,46 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="26"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="19" t="str">
+      <c r="N12" s="55">
+        <v>4</v>
+      </c>
+      <c r="O12" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P12" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q12" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="19">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R12" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R12" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="17">
+      <c r="A13" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B13" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C13" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D13" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E13" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -1854,42 +1898,46 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="14" t="str">
+      <c r="N13" s="57">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P13" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q13" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R13" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R13" s="15">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17">
+      <c r="A14" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B14" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="B14" s="19">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C14" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D14" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E14" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>5</v>
+      </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -1898,42 +1946,45 @@
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="26"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="19" t="str">
+      <c r="N14" s="55">
+        <v>6</v>
+      </c>
+      <c r="O14" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P14" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q14" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R14" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="R14" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17">
+      <c r="A15" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B15" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C15" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D15" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E15" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>6</v>
+      </c>
       <c r="F15" s="27"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1942,42 +1993,46 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
       <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="14" t="str">
+      <c r="N15" s="57">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P15" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q15" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R15" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R15" s="15">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17">
+      <c r="A16" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B16" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="B16" s="19">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C16" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D16" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E16" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="21">
+        <v>7</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -1986,42 +2041,46 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="26"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="19" t="str">
+      <c r="N16" s="55">
+        <v>8</v>
+      </c>
+      <c r="O16" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P16" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="P16" s="19">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q16" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R16" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R16" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="17">
+      <c r="A17" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B17" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C17" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D17" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E17" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>8</v>
+      </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -2030,42 +2089,46 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
       <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="14" t="str">
+      <c r="N17" s="57">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P17" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q17" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R17" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R17" s="15">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="17">
+      <c r="A18" s="19">
         <f t="shared" ref="A18:A31" si="8">IF(ISNUMBER($E18),IF(MOD($E18,16)/8&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="B18" s="19">
         <f t="shared" ref="B18:B31" si="9">IF(ISNUMBER($E18),IF(MOD($E18,8)/4&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19">
         <f t="shared" ref="C18:C31" si="10">IF(ISNUMBER($E18),IF(MOD($E18,4)/2&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
         <f t="shared" ref="D18:D31" si="11">IF(ISNUMBER($E18),MOD($E18,2),"")</f>
-        <v/>
-      </c>
-      <c r="E18" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="21">
+        <v>9</v>
+      </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -2074,42 +2137,46 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="26"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="19" t="str">
+      <c r="N18" s="55">
+        <v>0</v>
+      </c>
+      <c r="O18" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P18" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" s="19">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q18" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R18" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="17">
+      <c r="A19" s="14">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B19" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C19" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D19" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E19" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>10</v>
+      </c>
       <c r="F19" s="27"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -2118,42 +2185,46 @@
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
       <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="14" t="str">
+      <c r="N19" s="57">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P19" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q19" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R19" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="17">
+      <c r="A20" s="19">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B20" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="B20" s="19">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C20" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D20" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E20" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="21">
+        <v>11</v>
+      </c>
       <c r="F20" s="22"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -2162,42 +2233,46 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="26"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="19" t="str">
+      <c r="N20" s="55">
+        <v>12</v>
+      </c>
+      <c r="O20" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P20" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="P20" s="19">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q20" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="19">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R20" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R20" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="17">
+      <c r="A21" s="14">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B21" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C21" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D21" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E21" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>12</v>
+      </c>
       <c r="F21" s="27"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -2206,42 +2281,46 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
       <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="14" t="str">
+      <c r="N21" s="57">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P21" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q21" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R21" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R21" s="15">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="17">
+      <c r="A22" s="19">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B22" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C22" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="C22" s="19">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D22" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E22" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="21">
+        <v>13</v>
+      </c>
       <c r="F22" s="22"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
@@ -2250,25 +2329,27 @@
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="26"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="19" t="str">
+      <c r="N22" s="55">
+        <v>0</v>
+      </c>
+      <c r="O22" s="19">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P22" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P22" s="19">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q22" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R22" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R22" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="17">
       <c r="A23" s="14" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -2312,7 +2393,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="17">
       <c r="A24" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -2356,7 +2437,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="17">
       <c r="A25" s="14" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -2400,7 +2481,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="17">
       <c r="A26" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -2444,7 +2525,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="17">
       <c r="A27" s="14" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -2488,7 +2569,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="17">
       <c r="A28" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -2532,7 +2613,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="17">
       <c r="A29" s="14" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -2576,7 +2657,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="17">
       <c r="A30" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -2620,7 +2701,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="17">
       <c r="A31" s="14" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -2664,7 +2745,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="17">
       <c r="F32" s="67" t="s">
         <v>13</v>
       </c>
@@ -2722,22 +2803,22 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="4.625" customWidth="1"/>
-    <col min="12" max="12" width="4.625" hidden="1" customWidth="1"/>
+    <col min="1" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="30" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="30" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="30" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="30" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="30" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="30" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="29" customFormat="1" ht="16">
       <c r="A1" s="31" t="str">
         <f>状态转换表!A2</f>
         <v>S3</v>
@@ -2806,7 +2887,7 @@
         <v>N0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="34" t="str">
         <f>IF(状态转换表!A3=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A3=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
@@ -2876,7 +2957,7 @@
         <v>~S3&amp;~S2&amp;~S1&amp;~S0+</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="34" t="str">
         <f>IF(状态转换表!A4=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A4=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
@@ -2946,7 +3027,7 @@
         <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="34" t="str">
         <f>IF(状态转换表!A5=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A5=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
@@ -3016,22 +3097,22 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="34" t="str">
         <f>IF(状态转换表!A6=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A6=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B5" s="38" t="str">
         <f>IF(状态转换表!B6=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B6=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C5" s="38" t="str">
         <f>IF(状态转换表!C6=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C6=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D5" s="39" t="str">
         <f>IF(状态转换表!D6=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D6=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E5" s="40" t="str">
         <f>IF(状态转换表!F6&lt;&gt;"",IF(状态转换表!F6=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F6=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3043,7 +3124,7 @@
       </c>
       <c r="G5" s="38" t="str">
         <f>IF(状态转换表!H6&lt;&gt;"",IF(状态转换表!H6=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H6=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>SW&amp;</v>
       </c>
       <c r="H5" s="38" t="str">
         <f>IF(状态转换表!I6&lt;&gt;"",IF(状态转换表!I6=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I6=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -3067,7 +3148,7 @@
       </c>
       <c r="M5" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SW</v>
       </c>
       <c r="N5" s="2" t="str">
         <f>IF(状态转换表!O6=1,$M5&amp;"+","")</f>
@@ -3079,29 +3160,29 @@
       </c>
       <c r="P5" s="2" t="str">
         <f>IF(状态转换表!Q6=1,$M5&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+</v>
       </c>
       <c r="Q5" s="2" t="str">
         <f>IF(状态转换表!R6=1,$M5&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="34" t="str">
         <f>IF(状态转换表!A7=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A7=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B6" s="38" t="str">
         <f>IF(状态转换表!B7=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B7=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C6" s="38" t="str">
         <f>IF(状态转换表!C7=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C7=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D6" s="39" t="str">
         <f>IF(状态转换表!D7=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D7=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E6" s="40" t="str">
         <f>IF(状态转换表!F7&lt;&gt;"",IF(状态转换表!F7=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F7=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3117,7 +3198,7 @@
       </c>
       <c r="H6" s="38" t="str">
         <f>IF(状态转换表!I7&lt;&gt;"",IF(状态转换表!I7=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I7=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>BEQ&amp;</v>
       </c>
       <c r="I6" s="38" t="str">
         <f>IF(状态转换表!J7&lt;&gt;"",IF(状态转换表!J7=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J7=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
@@ -3137,11 +3218,11 @@
       </c>
       <c r="M6" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ</v>
       </c>
       <c r="N6" s="2" t="str">
         <f>IF(状态转换表!O7=1,$M6&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+</v>
       </c>
       <c r="O6" s="2" t="str">
         <f>IF(状态转换表!P7=1,$M6&amp;"+","")</f>
@@ -3153,25 +3234,25 @@
       </c>
       <c r="Q6" s="2" t="str">
         <f>IF(状态转换表!R7=1,$M6&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="34" t="str">
         <f>IF(状态转换表!A8=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A8=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B7" s="38" t="str">
         <f>IF(状态转换表!B8=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B8=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C7" s="38" t="str">
         <f>IF(状态转换表!C8=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C8=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D7" s="39" t="str">
         <f>IF(状态转换表!D8=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D8=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E7" s="40" t="str">
         <f>IF(状态转换表!F8&lt;&gt;"",IF(状态转换表!F8=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F8=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3191,7 +3272,7 @@
       </c>
       <c r="I7" s="38" t="str">
         <f>IF(状态转换表!J8&lt;&gt;"",IF(状态转换表!J8=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J8=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>BNE&amp;</v>
       </c>
       <c r="J7" s="38" t="str">
         <f>IF(状态转换表!K8&lt;&gt;"",IF(状态转换表!K8=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K8=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
@@ -3207,11 +3288,11 @@
       </c>
       <c r="M7" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE</v>
       </c>
       <c r="N7" s="2" t="str">
         <f>IF(状态转换表!O8=1,$M7&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+</v>
       </c>
       <c r="O7" s="2" t="str">
         <f>IF(状态转换表!P8=1,$M7&amp;"+","")</f>
@@ -3219,29 +3300,29 @@
       </c>
       <c r="P7" s="2" t="str">
         <f>IF(状态转换表!Q8=1,$M7&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f>IF(状态转换表!R8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="34" t="str">
         <f>IF(状态转换表!A9=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A9=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B8" s="38" t="str">
         <f>IF(状态转换表!B9=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B9=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C8" s="38" t="str">
         <f>IF(状态转换表!C9=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C9=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D8" s="39" t="str">
         <f>IF(状态转换表!D9=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D9=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E8" s="40" t="str">
         <f>IF(状态转换表!F9&lt;&gt;"",IF(状态转换表!F9=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F9=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3265,7 +3346,7 @@
       </c>
       <c r="J8" s="38" t="str">
         <f>IF(状态转换表!K9&lt;&gt;"",IF(状态转换表!K9=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K9=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>SYSCALL&amp;</v>
       </c>
       <c r="K8" s="38" t="str">
         <f>IF(状态转换表!L9&lt;&gt;"",IF(状态转换表!L9=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L9=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
@@ -3277,15 +3358,15 @@
       </c>
       <c r="M8" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL</v>
       </c>
       <c r="N8" s="2" t="str">
         <f>IF(状态转换表!O9=1,$M8&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+</v>
       </c>
       <c r="O8" s="2" t="str">
         <f>IF(状态转换表!P9=1,$M8&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+</v>
       </c>
       <c r="P8" s="2" t="str">
         <f>IF(状态转换表!Q9=1,$M8&amp;"+","")</f>
@@ -3293,25 +3374,25 @@
       </c>
       <c r="Q8" s="2" t="str">
         <f>IF(状态转换表!R9=1,$M8&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="34" t="str">
         <f>IF(状态转换表!A10=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A10=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B9" s="38" t="str">
         <f>IF(状态转换表!B10=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B10=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C9" s="38" t="str">
         <f>IF(状态转换表!C10=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C10=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D9" s="39" t="str">
         <f>IF(状态转换表!D10=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D10=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E9" s="40" t="str">
         <f>IF(状态转换表!F10&lt;&gt;"",IF(状态转换表!F10=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F10=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3339,7 +3420,7 @@
       </c>
       <c r="K9" s="38" t="str">
         <f>IF(状态转换表!L10&lt;&gt;"",IF(状态转换表!L10=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L10=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>ADDI&amp;</v>
       </c>
       <c r="L9" s="49" t="str">
         <f>IF(状态转换表!M10&lt;&gt;"",IF(状态转换表!M10=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M10=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
@@ -3347,11 +3428,11 @@
       </c>
       <c r="M9" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI</v>
       </c>
       <c r="N9" s="2" t="str">
         <f>IF(状态转换表!O10=1,$M9&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+</v>
       </c>
       <c r="O9" s="2" t="str">
         <f>IF(状态转换表!P10=1,$M9&amp;"+","")</f>
@@ -3359,29 +3440,29 @@
       </c>
       <c r="P9" s="2" t="str">
         <f>IF(状态转换表!Q10=1,$M9&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+</v>
       </c>
       <c r="Q9" s="2" t="str">
         <f>IF(状态转换表!R10=1,$M9&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="34" t="str">
         <f>IF(状态转换表!A11=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A11=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B10" s="38" t="str">
         <f>IF(状态转换表!B11=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B11=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C10" s="38" t="str">
         <f>IF(状态转换表!C11=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C11=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D10" s="39" t="str">
         <f>IF(状态转换表!D11=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D11=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="E10" s="40" t="str">
         <f>IF(状态转换表!F11&lt;&gt;"",IF(状态转换表!F11=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F11=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3417,7 +3498,7 @@
       </c>
       <c r="M10" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;~S0</v>
       </c>
       <c r="N10" s="2" t="str">
         <f>IF(状态转换表!O11=1,$M10&amp;"+","")</f>
@@ -3429,29 +3510,29 @@
       </c>
       <c r="P10" s="2" t="str">
         <f>IF(状态转换表!Q11=1,$M10&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="Q10" s="2" t="str">
         <f>IF(状态转换表!R11=1,$M10&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>~S3&amp;~S2&amp;S1&amp;~S0+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="34" t="str">
         <f>IF(状态转换表!A12=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A12=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B11" s="38" t="str">
         <f>IF(状态转换表!B12=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B12=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C11" s="38" t="str">
         <f>IF(状态转换表!C12=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C12=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D11" s="39" t="str">
         <f>IF(状态转换表!D12=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D12=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E11" s="40" t="str">
         <f>IF(状态转换表!F12&lt;&gt;"",IF(状态转换表!F12=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F12=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3487,7 +3568,7 @@
       </c>
       <c r="M11" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>IF(状态转换表!O12=1,$M11&amp;"+","")</f>
@@ -3495,7 +3576,7 @@
       </c>
       <c r="O11" s="2" t="str">
         <f>IF(状态转换表!P12=1,$M11&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="P11" s="2" t="str">
         <f>IF(状态转换表!Q12=1,$M11&amp;"+","")</f>
@@ -3506,22 +3587,22 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="34" t="str">
         <f>IF(状态转换表!A13=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A13=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B12" s="38" t="str">
         <f>IF(状态转换表!B13=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B13=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C12" s="38" t="str">
         <f>IF(状态转换表!C13=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C13=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D12" s="39" t="str">
         <f>IF(状态转换表!D13=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D13=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="E12" s="40" t="str">
         <f>IF(状态转换表!F13&lt;&gt;"",IF(状态转换表!F13=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F13=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3557,7 +3638,7 @@
       </c>
       <c r="M12" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(状态转换表!O13=1,$M12&amp;"+","")</f>
@@ -3576,22 +3657,22 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="34" t="str">
         <f>IF(状态转换表!A14=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A14=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B13" s="38" t="str">
         <f>IF(状态转换表!B14=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B14=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C13" s="38" t="str">
         <f>IF(状态转换表!C14=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C14=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D13" s="39" t="str">
         <f>IF(状态转换表!D14=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D14=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E13" s="40" t="str">
         <f>IF(状态转换表!F14&lt;&gt;"",IF(状态转换表!F14=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F14=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3627,7 +3708,7 @@
       </c>
       <c r="M13" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N13" s="2" t="str">
         <f>IF(状态转换表!O14=1,$M13&amp;"+","")</f>
@@ -3635,33 +3716,33 @@
       </c>
       <c r="O13" s="2" t="str">
         <f>IF(状态转换表!P14=1,$M13&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="P13" s="2" t="str">
         <f>IF(状态转换表!Q14=1,$M13&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="Q13" s="2" t="str">
         <f>IF(状态转换表!R14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="34" t="str">
         <f>IF(状态转换表!A15=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A15=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B14" s="38" t="str">
         <f>IF(状态转换表!B15=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B15=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C14" s="38" t="str">
         <f>IF(状态转换表!C15=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C15=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D14" s="39" t="str">
         <f>IF(状态转换表!D15=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D15=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="E14" s="40" t="str">
         <f>IF(状态转换表!F15&lt;&gt;"",IF(状态转换表!F15=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F15=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3697,7 +3778,7 @@
       </c>
       <c r="M14" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;~S0</v>
       </c>
       <c r="N14" s="2" t="str">
         <f>IF(状态转换表!O15=1,$M14&amp;"+","")</f>
@@ -3716,22 +3797,22 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="34" t="str">
         <f>IF(状态转换表!A16=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A16=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="B15" s="38" t="str">
         <f>IF(状态转换表!B16=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B16=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C15" s="38" t="str">
         <f>IF(状态转换表!C16=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C16=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D15" s="39" t="str">
         <f>IF(状态转换表!D16=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D16=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E15" s="40" t="str">
         <f>IF(状态转换表!F16&lt;&gt;"",IF(状态转换表!F16=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F16=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3767,11 +3848,11 @@
       </c>
       <c r="M15" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;S0</v>
       </c>
       <c r="N15" s="2" t="str">
         <f>IF(状态转换表!O16=1,$M15&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;S0+</v>
       </c>
       <c r="O15" s="2" t="str">
         <f>IF(状态转换表!P16=1,$M15&amp;"+","")</f>
@@ -3786,22 +3867,22 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="34" t="str">
         <f>IF(状态转换表!A17=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A17=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="B16" s="38" t="str">
         <f>IF(状态转换表!B17=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B17=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C16" s="38" t="str">
         <f>IF(状态转换表!C17=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C17=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D16" s="39" t="str">
         <f>IF(状态转换表!D17=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D17=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="E16" s="40" t="str">
         <f>IF(状态转换表!F17&lt;&gt;"",IF(状态转换表!F17=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F17=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3837,7 +3918,7 @@
       </c>
       <c r="M16" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(状态转换表!O17=1,$M16&amp;"+","")</f>
@@ -3856,22 +3937,22 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="34" t="str">
         <f>IF(状态转换表!A18=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A18=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="B17" s="38" t="str">
         <f>IF(状态转换表!B18=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B18=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C17" s="38" t="str">
         <f>IF(状态转换表!C18=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C18=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D17" s="39" t="str">
         <f>IF(状态转换表!D18=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D18=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E17" s="40" t="str">
         <f>IF(状态转换表!F18&lt;&gt;"",IF(状态转换表!F18=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F18=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3907,7 +3988,7 @@
       </c>
       <c r="M17" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N17" s="2" t="str">
         <f>IF(状态转换表!O18=1,$M17&amp;"+","")</f>
@@ -3926,22 +4007,22 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="34" t="str">
         <f>IF(状态转换表!A19=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A19=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="B18" s="38" t="str">
         <f>IF(状态转换表!B19=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B19=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C18" s="38" t="str">
         <f>IF(状态转换表!C19=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C19=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D18" s="39" t="str">
         <f>IF(状态转换表!D19=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D19=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="E18" s="40" t="str">
         <f>IF(状态转换表!F19&lt;&gt;"",IF(状态转换表!F19=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F19=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -3977,7 +4058,7 @@
       </c>
       <c r="M18" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;S1&amp;~S0</v>
       </c>
       <c r="N18" s="2" t="str">
         <f>IF(状态转换表!O19=1,$M18&amp;"+","")</f>
@@ -3996,22 +4077,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="34" t="str">
         <f>IF(状态转换表!A20=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A20=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="B19" s="38" t="str">
         <f>IF(状态转换表!B20=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B20=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C19" s="38" t="str">
         <f>IF(状态转换表!C20=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C20=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D19" s="39" t="str">
         <f>IF(状态转换表!D20=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D20=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E19" s="40" t="str">
         <f>IF(状态转换表!F20&lt;&gt;"",IF(状态转换表!F20=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F20=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -4047,15 +4128,15 @@
       </c>
       <c r="M19" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>IF(状态转换表!O20=1,$M19&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(状态转换表!P20=1,$M19&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="P19" s="2" t="str">
         <f>IF(状态转换表!Q20=1,$M19&amp;"+","")</f>
@@ -4066,22 +4147,22 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="34" t="str">
         <f>IF(状态转换表!A21=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A21=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="B20" s="38" t="str">
         <f>IF(状态转换表!B21=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B21=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C20" s="38" t="str">
         <f>IF(状态转换表!C21=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C21=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D20" s="39" t="str">
         <f>IF(状态转换表!D21=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D21=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="E20" s="40" t="str">
         <f>IF(状态转换表!F21&lt;&gt;"",IF(状态转换表!F21=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F21=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -4117,7 +4198,7 @@
       </c>
       <c r="M20" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N20" s="2" t="str">
         <f>IF(状态转换表!O21=1,$M20&amp;"+","")</f>
@@ -4136,22 +4217,22 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" s="34" t="str">
         <f>IF(状态转换表!A22=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A22=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="B21" s="38" t="str">
         <f>IF(状态转换表!B22=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B22=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C21" s="38" t="str">
         <f>IF(状态转换表!C22=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C22=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D21" s="39" t="str">
         <f>IF(状态转换表!D22=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D22=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E21" s="40" t="str">
         <f>IF(状态转换表!F22&lt;&gt;"",IF(状态转换表!F22=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F22=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
@@ -4187,7 +4268,7 @@
       </c>
       <c r="M21" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N21" s="2" t="str">
         <f>IF(状态转换表!O22=1,$M21&amp;"+","")</f>
@@ -4206,7 +4287,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" s="34" t="str">
         <f>IF(状态转换表!A23=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A23=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -4276,7 +4357,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" s="34" t="str">
         <f>IF(状态转换表!A24=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A24=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -4346,7 +4427,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" s="34" t="str">
         <f>IF(状态转换表!A25=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A25=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -4416,7 +4497,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" s="34" t="str">
         <f>IF(状态转换表!A26=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A26=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -4486,7 +4567,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" hidden="1">
       <c r="A26" s="34" t="str">
         <f>IF(状态转换表!A27=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A27=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -4556,7 +4637,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" hidden="1">
       <c r="A27" s="34" t="str">
         <f>IF(状态转换表!A28=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A28=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -4626,7 +4707,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" s="34" t="str">
         <f>IF(状态转换表!A29=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A29=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -4696,7 +4777,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" s="34" t="str">
         <f>IF(状态转换表!A30=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A30=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -4766,7 +4847,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" s="34" t="str">
         <f>IF(状态转换表!A31=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A31=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
@@ -4836,7 +4917,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="17">
       <c r="A31" s="68" t="s">
         <v>15</v>
       </c>
@@ -4854,22 +4935,22 @@
       <c r="M31" s="70"/>
       <c r="N31" s="4" t="str">
         <f>IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;S2&amp;S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="O31" s="4" t="str">
         <f>IF(LEN(O32)&gt;1,LEFT(O32,LEN(O32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="P31" s="4" t="str">
         <f>IF(LEN(P32)&gt;1,LEFT(P32,LEN(P32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="Q31" s="6" t="str">
         <f>IF(LEN(Q32)&gt;1,LEFT(Q32,LEN(Q32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -4885,27 +4966,27 @@
       <c r="M32" s="50"/>
       <c r="N32" s="5" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30)</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;S2&amp;S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="O32" s="5" t="str">
         <f t="shared" ref="O32:Q32" si="1">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="P32" s="5" t="str">
         <f t="shared" ref="P32" si="2">CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30)</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="Q32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" ht="15" x14ac:dyDescent="0.2">
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" ht="17">
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="M35" s="51"/>
     </row>
-    <row r="36" spans="5:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:15" ht="17">
       <c r="O36" s="7" t="s">
         <v>16</v>
       </c>

--- a/Lab4 CPU/硬布线控制器状态转换逻辑自动生成(2019-4-22).xlsx
+++ b/Lab4 CPU/硬布线控制器状态转换逻辑自动生成(2019-4-22).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenlongding/大学课程/组原/Lab-of-Computer-Organiziation/Lab4 CPU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE851DC-858C-194F-949A-8D7A6D9CE58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B511DE3-D950-0C4A-90E9-2C9CE8C0218E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15420" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="状态转换表" sheetId="1" r:id="rId1"/>
@@ -1284,9 +1284,9 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1555,7 +1555,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="26"/>
       <c r="N6" s="55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6" s="19">
         <f t="shared" si="4"/>
@@ -1563,11 +1563,11 @@
       </c>
       <c r="P6" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="19">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="7"/>
@@ -2330,15 +2330,15 @@
       <c r="L22" s="23"/>
       <c r="M22" s="26"/>
       <c r="N22" s="55">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O22" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="19">
         <f t="shared" si="6"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="R22" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="17">
@@ -2803,7 +2803,7 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -3156,11 +3156,11 @@
       </c>
       <c r="O5" s="2" t="str">
         <f>IF(状态转换表!P6=1,$M5&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+</v>
       </c>
       <c r="P5" s="2" t="str">
         <f>IF(状态转换表!Q6=1,$M5&amp;"+","")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+</v>
+        <v/>
       </c>
       <c r="Q5" s="2" t="str">
         <f>IF(状态转换表!R6=1,$M5&amp;"+","")</f>
@@ -4272,11 +4272,11 @@
       </c>
       <c r="N21" s="2" t="str">
         <f>IF(状态转换表!O22=1,$M21&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="O21" s="2" t="str">
         <f>IF(状态转换表!P22=1,$M21&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="P21" s="2" t="str">
         <f>IF(状态转换表!Q22=1,$M21&amp;"+","")</f>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="Q21" s="2" t="str">
         <f>IF(状态转换表!R22=1,$M21&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
     </row>
     <row r="22" spans="1:17" hidden="1">
@@ -4935,19 +4935,19 @@
       <c r="M31" s="70"/>
       <c r="N31" s="4" t="str">
         <f>IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;S2&amp;S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;S2&amp;S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="O31" s="4" t="str">
         <f>IF(LEN(O32)&gt;1,LEFT(O32,LEN(O32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="P31" s="4" t="str">
         <f>IF(LEN(P32)&gt;1,LEFT(P32,LEN(P32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="Q31" s="6" t="str">
         <f>IF(LEN(Q32)&gt;1,LEFT(Q32,LEN(Q32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1">
@@ -4966,19 +4966,19 @@
       <c r="M32" s="50"/>
       <c r="N32" s="5" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30)</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;S2&amp;S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;S2&amp;S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="O32" s="5" t="str">
         <f t="shared" ref="O32:Q32" si="1">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="P32" s="5" t="str">
         <f t="shared" ref="P32" si="2">CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30)</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0+</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="Q32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
     </row>
     <row r="35" spans="5:15" ht="17">

--- a/Lab4 CPU/硬布线控制器状态转换逻辑自动生成(2019-4-22).xlsx
+++ b/Lab4 CPU/硬布线控制器状态转换逻辑自动生成(2019-4-22).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenlongding/大学课程/组原/Lab-of-Computer-Organiziation/Lab4 CPU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B511DE3-D950-0C4A-90E9-2C9CE8C0218E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BE682E-FF8E-464C-B284-023223ED3498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15420" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,7 +1286,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2803,7 +2803,7 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
